--- a/Instances/03_NonStationary_b2_fe25_en_rk50_ll0_l20_HFalse_c2.xlsx
+++ b/Instances/03_NonStationary_b2_fe25_en_rk50_ll0_l20_HFalse_c2.xlsx
@@ -3735,7 +3735,7 @@
         <v>1.1</v>
       </c>
       <c r="E2" t="n">
-        <v>24.64</v>
+        <v>24.32</v>
       </c>
       <c r="F2" t="n">
         <v>2.2</v>
@@ -3761,13 +3761,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="D3" t="n">
         <v>1.6412</v>
       </c>
       <c r="E3" t="n">
-        <v>11.64</v>
+        <v>16.2</v>
       </c>
       <c r="F3" t="n">
         <v>3.2824</v>
@@ -3793,13 +3793,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="D4" t="n">
         <v>1.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>11.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F4" t="n">
         <v>3.3296</v>
@@ -3825,13 +3825,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D5" t="n">
         <v>1.69896</v>
       </c>
       <c r="E5" t="n">
-        <v>15.56256</v>
+        <v>11.80608</v>
       </c>
       <c r="F5" t="n">
         <v>3.39792</v>
@@ -3863,7 +3863,7 @@
         <v>0.9600000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>23.28</v>
+        <v>32.40000000000001</v>
       </c>
       <c r="F6" t="n">
         <v>1.92</v>
@@ -3895,7 +3895,7 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>38.6</v>
+        <v>33.8</v>
       </c>
       <c r="F7" t="n">
         <v>1.88</v>
@@ -3927,7 +3927,7 @@
         <v>1.5812</v>
       </c>
       <c r="E8" t="n">
-        <v>3.88</v>
+        <v>5.4</v>
       </c>
       <c r="F8" t="n">
         <v>3.1624</v>
@@ -3959,7 +3959,7 @@
         <v>1.5648</v>
       </c>
       <c r="E9" t="n">
-        <v>5.568000000000001</v>
+        <v>4.464</v>
       </c>
       <c r="F9" t="n">
         <v>3.1296</v>
@@ -3985,13 +3985,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>242</v>
+        <v>93</v>
       </c>
       <c r="D10" t="n">
         <v>0.44</v>
       </c>
       <c r="E10" t="n">
-        <v>85.36</v>
+        <v>118.8</v>
       </c>
       <c r="F10" t="n">
         <v>0.88</v>
@@ -4017,13 +4017,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>619</v>
+        <v>314</v>
       </c>
       <c r="D11" t="n">
         <v>0.24</v>
       </c>
       <c r="E11" t="n">
-        <v>139.2</v>
+        <v>145.92</v>
       </c>
       <c r="F11" t="n">
         <v>0.48</v>
@@ -4049,13 +4049,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>619</v>
+        <v>314</v>
       </c>
       <c r="D12" t="n">
         <v>0.16</v>
       </c>
       <c r="E12" t="n">
-        <v>92.8</v>
+        <v>97.28</v>
       </c>
       <c r="F12" t="n">
         <v>0.32</v>
@@ -4081,13 +4081,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>377</v>
+        <v>221</v>
       </c>
       <c r="D13" t="n">
         <v>0.44</v>
       </c>
       <c r="E13" t="n">
-        <v>169.84</v>
+        <v>148.72</v>
       </c>
       <c r="F13" t="n">
         <v>0.88</v>
@@ -4119,7 +4119,7 @@
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>255.6</v>
+        <v>273.6</v>
       </c>
       <c r="F14" t="n">
         <v>1.2</v>
@@ -4145,7 +4145,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>242</v>
+        <v>93</v>
       </c>
       <c r="D15" t="n">
         <v>0.9600000000000001</v>
@@ -4177,13 +4177,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>242</v>
+        <v>93</v>
       </c>
       <c r="D16" t="n">
         <v>0.6012</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2328</v>
+        <v>0.324</v>
       </c>
       <c r="F16" t="n">
         <v>1.2024</v>
@@ -4209,13 +4209,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="D17" t="n">
         <v>0.6008</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1856</v>
+        <v>0.1488</v>
       </c>
       <c r="F17" t="n">
         <v>1.2016</v>
@@ -4241,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>377</v>
+        <v>221</v>
       </c>
       <c r="D18" t="n">
         <v>0.9400000000000001</v>
@@ -4342,16 +4342,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="D2" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -4398,16 +4398,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C3" t="n">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="E3" t="n">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -4454,16 +4454,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C4" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -4510,16 +4510,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="D5" t="n">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="E5" t="n">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4566,16 +4566,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="C6" t="n">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D6" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -4622,16 +4622,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="C7" t="n">
-        <v>82</v>
+        <v>396</v>
       </c>
       <c r="D7" t="n">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E7" t="n">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -4750,16 +4750,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.25</v>
+        <v>9.375</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>29.625</v>
       </c>
       <c r="D2" t="n">
-        <v>11.625</v>
+        <v>10.875</v>
       </c>
       <c r="E2" t="n">
-        <v>0.375</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -4806,16 +4806,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.0625</v>
+        <v>20.625</v>
       </c>
       <c r="C3" t="n">
-        <v>30.9375</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>16.6875</v>
+        <v>7.3125</v>
       </c>
       <c r="E3" t="n">
-        <v>27.375</v>
+        <v>14.4375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -4862,16 +4862,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20.5625</v>
+        <v>16.625</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09375</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>6.78125</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -4918,16 +4918,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>26.484375</v>
+        <v>2.8125</v>
       </c>
       <c r="C5" t="n">
-        <v>33.046875</v>
+        <v>21.796875</v>
       </c>
       <c r="D5" t="n">
-        <v>5.625</v>
+        <v>14.765625</v>
       </c>
       <c r="E5" t="n">
-        <v>30.46875</v>
+        <v>9.140625</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4974,16 +4974,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.5</v>
+        <v>26.3984375</v>
       </c>
       <c r="C6" t="n">
-        <v>22.28125</v>
+        <v>19.1328125</v>
       </c>
       <c r="D6" t="n">
-        <v>15.984375</v>
+        <v>15.015625</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>14.53125</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5030,16 +5030,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.12109375</v>
+        <v>18.2109375</v>
       </c>
       <c r="C7" t="n">
-        <v>20.1796875</v>
+        <v>97.453125</v>
       </c>
       <c r="D7" t="n">
-        <v>14.51953125</v>
+        <v>10.08984375</v>
       </c>
       <c r="E7" t="n">
-        <v>16.2421875</v>
+        <v>0.24609375</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1218.8</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5118,7 +5118,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4414</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5126,7 +5126,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2012</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5134,7 +5134,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19394</v>
+        <v>20756</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5142,7 +5142,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>71546</v>
+        <v>76266</v>
       </c>
     </row>
   </sheetData>
